--- a/revenue-streamlit/tenancy_list_scenario_01C.xlsx
+++ b/revenue-streamlit/tenancy_list_scenario_01C.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E26A472-73F2-904F-A311-C7087A595554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1E26A472-73F2-904F-A311-C7087A595554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC999BFA-E9AC-574B-A147-149A7CCDFFA7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="33260" windowHeight="21160" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,69 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1574,6 +1636,154 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2303,306 +2513,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2628,7 +2538,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>288616</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>77683</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2700,13 +2610,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>234894</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>86989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>276703</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>32053</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2778,13 +2688,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>222981</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>131271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264790</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>157345</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2889,31 +2799,42 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Product_Type" xr10:uid="{3E27C4DA-B740-D643-BDF7-575D40894E0A}" cache="Slicer_Product_Type" caption="Product_Type" rowHeight="230716"/>
   <slicer name="Group" xr10:uid="{40B0A4B9-B561-5347-8FF6-F50F053C1A4C}" cache="Slicer_Group" caption="Group" rowHeight="230716"/>
-  <slicer name="End" xr10:uid="{B17BD57E-B2EA-1042-9987-3412CB8A8925}" cache="Slicer_End" caption="End" startItem="11" rowHeight="230716"/>
+  <slicer name="End" xr10:uid="{B17BD57E-B2EA-1042-9987-3412CB8A8925}" cache="Slicer_End" caption="End" rowHeight="230716"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N158" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="A1:N157" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N158" totalsRowCount="1" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+  <autoFilter ref="A1:N157" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Office"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N157">
     <sortCondition ref="A1:A157"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{49AC1DFB-968F-8C4C-B46A-BA65A08A82F8}" name="Floor" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{7407A2D4-11A2-B14C-9C1E-EB812BA07976}" name="Zone" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{EDDF5F0D-2514-4DA3-8E09-CC07C1F5EC73}" name="Product_Type" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{584F12DA-F9A2-F044-BEE3-95C850B08187}" name="Group" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{9F70DA22-AD03-2E40-982C-172221ED7B17}" name="Tenant" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{38FEB9FC-3468-1746-8CEA-0778DBB66ECF}" name="Area" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{D64C9D1A-FA8B-4C4D-B607-52E1E05305B0}" name="Chg_Type" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{CFF86D67-BC6E-F940-B6C5-060702DC8E14}" name="Start" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{A0B757F2-99D8-6B48-9212-0A3F40DF200F}" name="End" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{29206E0A-C3D4-7148-A9B7-062237C9AD9C}" name="Rental_Rate" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma [0]"/>
-    <tableColumn id="12" xr3:uid="{6631B20D-5386-3149-B067-110BB05C3B0A}" name="SC_Rate" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" xr3:uid="{61759F5E-0021-784D-BB1B-F0F0AD385D08}" name="Notes_1" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{49AC1DFB-968F-8C4C-B46A-BA65A08A82F8}" name="Floor" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{7407A2D4-11A2-B14C-9C1E-EB812BA07976}" name="Zone" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{EDDF5F0D-2514-4DA3-8E09-CC07C1F5EC73}" name="Product_Type" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{584F12DA-F9A2-F044-BEE3-95C850B08187}" name="Group" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{9F70DA22-AD03-2E40-982C-172221ED7B17}" name="Tenant" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{38FEB9FC-3468-1746-8CEA-0778DBB66ECF}" name="Area" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{D64C9D1A-FA8B-4C4D-B607-52E1E05305B0}" name="Chg_Type" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{CFF86D67-BC6E-F940-B6C5-060702DC8E14}" name="Start" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{A0B757F2-99D8-6B48-9212-0A3F40DF200F}" name="End" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{29206E0A-C3D4-7148-A9B7-062237C9AD9C}" name="Rental_Rate" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Comma [0]"/>
+    <tableColumn id="12" xr3:uid="{6631B20D-5386-3149-B067-110BB05C3B0A}" name="SC_Rate" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" xr3:uid="{61759F5E-0021-784D-BB1B-F0F0AD385D08}" name="Notes_1" dataDxfId="32" totalsRowDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3295,7 +3216,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3870,7 +3791,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -3997,7 +3918,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -4085,7 +4006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -4129,7 +4050,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>18</v>
       </c>
@@ -4173,7 +4094,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>19</v>
       </c>
@@ -4209,7 +4130,7 @@
       <c r="M21" s="40"/>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>20</v>
       </c>
@@ -4628,7 +4549,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>30</v>
       </c>
@@ -4664,7 +4585,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <v>31</v>
       </c>
@@ -4706,7 +4627,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
         <v>32</v>
       </c>
@@ -4742,7 +4663,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
         <v>33</v>
       </c>
@@ -4784,7 +4705,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
         <v>34</v>
       </c>
@@ -4820,7 +4741,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <v>35</v>
       </c>
@@ -4862,7 +4783,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <v>36</v>
       </c>
@@ -4940,7 +4861,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
         <v>38</v>
       </c>
@@ -4982,7 +4903,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
         <v>39</v>
       </c>
@@ -5024,7 +4945,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>40</v>
       </c>
@@ -5151,7 +5072,7 @@
       </c>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
         <v>43</v>
       </c>
@@ -5193,7 +5114,7 @@
       </c>
       <c r="N45" s="20"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
         <v>44</v>
       </c>
@@ -5238,7 +5159,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
         <v>45</v>
       </c>
@@ -5280,7 +5201,7 @@
       </c>
       <c r="N47" s="20"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
         <v>46</v>
       </c>
@@ -5322,7 +5243,7 @@
       </c>
       <c r="N48" s="20"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
         <v>47</v>
       </c>
@@ -5609,7 +5530,7 @@
       </c>
       <c r="N55" s="20"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
         <v>54</v>
       </c>
@@ -5651,7 +5572,7 @@
       </c>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
         <v>55</v>
       </c>
@@ -5693,7 +5614,7 @@
       </c>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
         <v>56</v>
       </c>
@@ -5735,7 +5656,7 @@
       </c>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
         <v>57</v>
       </c>
@@ -5777,7 +5698,7 @@
       </c>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
         <v>58</v>
       </c>
@@ -5819,7 +5740,7 @@
       </c>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
         <v>59</v>
       </c>
@@ -5861,7 +5782,7 @@
       </c>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
         <v>60</v>
       </c>
@@ -5903,7 +5824,7 @@
       </c>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
         <v>61</v>
       </c>
@@ -5945,7 +5866,7 @@
       </c>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
         <v>62</v>
       </c>
@@ -5987,7 +5908,7 @@
       </c>
       <c r="N64" s="20"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
         <v>63</v>
       </c>
@@ -6023,7 +5944,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
         <v>64</v>
       </c>
@@ -6065,7 +5986,7 @@
       </c>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
         <v>65</v>
       </c>
@@ -6107,7 +6028,7 @@
       </c>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
         <v>66</v>
       </c>
@@ -6149,7 +6070,7 @@
       </c>
       <c r="N68" s="20"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>67</v>
       </c>
@@ -6191,7 +6112,7 @@
       </c>
       <c r="N69" s="20"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
         <v>68</v>
       </c>
@@ -6233,7 +6154,7 @@
       </c>
       <c r="N70" s="20"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
         <v>69</v>
       </c>
@@ -6275,7 +6196,7 @@
       </c>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
         <v>70</v>
       </c>
@@ -6317,7 +6238,7 @@
       </c>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="29">
         <v>71</v>
       </c>
@@ -6359,7 +6280,7 @@
       </c>
       <c r="N73" s="20"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
         <v>72</v>
       </c>
@@ -6401,7 +6322,7 @@
       </c>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
         <v>73</v>
       </c>
@@ -6437,7 +6358,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="20"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
         <v>74</v>
       </c>
@@ -6479,7 +6400,7 @@
       </c>
       <c r="N76" s="20"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
         <v>75</v>
       </c>
@@ -6523,7 +6444,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
         <v>76</v>
       </c>
@@ -6565,7 +6486,7 @@
       </c>
       <c r="N78" s="20"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>77</v>
       </c>
@@ -6607,7 +6528,7 @@
       </c>
       <c r="N79" s="20"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
         <v>78</v>
       </c>
@@ -6649,7 +6570,7 @@
       </c>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="29">
         <v>79</v>
       </c>
@@ -6693,7 +6614,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
         <v>80</v>
       </c>
@@ -6733,7 +6654,7 @@
       </c>
       <c r="N82" s="20"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="29">
         <v>81</v>
       </c>
@@ -6773,7 +6694,7 @@
       </c>
       <c r="N83" s="20"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="29">
         <v>82</v>
       </c>
@@ -6817,7 +6738,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
       <c r="B85" s="29" t="s">
         <v>174</v>
@@ -6988,7 +6909,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="29">
         <v>86</v>
       </c>
@@ -7070,7 +6991,7 @@
       </c>
       <c r="N90" s="20"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="29">
         <v>88</v>
       </c>
@@ -7112,7 +7033,7 @@
       </c>
       <c r="N91" s="20"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
         <v>89</v>
       </c>
@@ -7156,7 +7077,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
         <v>90</v>
       </c>
@@ -7198,7 +7119,7 @@
       </c>
       <c r="N93" s="20"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
         <v>91</v>
       </c>
@@ -7368,7 +7289,7 @@
       </c>
       <c r="N97" s="20"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
         <v>95</v>
       </c>
@@ -7408,7 +7329,7 @@
       </c>
       <c r="N98" s="20"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
         <v>96</v>
       </c>
@@ -7450,7 +7371,7 @@
       </c>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
         <v>97</v>
       </c>
@@ -7490,7 +7411,7 @@
       </c>
       <c r="N100" s="20"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
         <v>98</v>
       </c>
@@ -7532,7 +7453,7 @@
       </c>
       <c r="N101" s="20"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
         <v>99</v>
       </c>
@@ -7572,7 +7493,7 @@
       </c>
       <c r="N102" s="20"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
         <v>100</v>
       </c>
@@ -7614,7 +7535,7 @@
       </c>
       <c r="N103" s="20"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
         <v>101</v>
       </c>
@@ -7654,7 +7575,7 @@
       </c>
       <c r="N104" s="20"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="29">
         <v>102</v>
       </c>
@@ -7696,7 +7617,7 @@
       </c>
       <c r="N105" s="20"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="29">
         <v>103</v>
       </c>
@@ -7732,7 +7653,7 @@
       <c r="M106" s="14"/>
       <c r="N106" s="20"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
         <v>104</v>
       </c>
@@ -7768,7 +7689,7 @@
       <c r="M107" s="14"/>
       <c r="N107" s="20"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
         <v>105</v>
       </c>
@@ -7810,7 +7731,7 @@
       </c>
       <c r="N108" s="20"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
         <v>106</v>
       </c>
@@ -7852,7 +7773,7 @@
       </c>
       <c r="N109" s="20"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
         <v>107</v>
       </c>
@@ -7894,7 +7815,7 @@
       </c>
       <c r="N110" s="20"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
         <v>108</v>
       </c>
@@ -7936,7 +7857,7 @@
       </c>
       <c r="N111" s="20"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="29">
         <v>109</v>
       </c>
@@ -7972,7 +7893,7 @@
       <c r="M112" s="15"/>
       <c r="N112" s="20"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="29">
         <v>110</v>
       </c>
@@ -8014,7 +7935,7 @@
       </c>
       <c r="N113" s="20"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="29">
         <v>111</v>
       </c>
@@ -8056,7 +7977,7 @@
       </c>
       <c r="N114" s="20"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="29">
         <v>112</v>
       </c>
@@ -8098,7 +8019,7 @@
       </c>
       <c r="N115" s="20"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="29">
         <v>113</v>
       </c>
@@ -8140,7 +8061,7 @@
       </c>
       <c r="N116" s="20"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="29">
         <v>114</v>
       </c>
@@ -8182,7 +8103,7 @@
       </c>
       <c r="N117" s="20"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="29">
         <v>115</v>
       </c>
@@ -8224,7 +8145,7 @@
       </c>
       <c r="N118" s="20"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="29">
         <v>116</v>
       </c>
@@ -8258,7 +8179,7 @@
       <c r="M119" s="14"/>
       <c r="N119" s="20"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="29">
         <v>117</v>
       </c>
@@ -8300,7 +8221,7 @@
       </c>
       <c r="N120" s="20"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="29">
         <v>118</v>
       </c>
@@ -8342,7 +8263,7 @@
       </c>
       <c r="N121" s="20"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="29">
         <v>119</v>
       </c>
@@ -8384,7 +8305,7 @@
       </c>
       <c r="N122" s="20"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="29">
         <v>120</v>
       </c>
@@ -8426,7 +8347,7 @@
       </c>
       <c r="N123" s="20"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
         <v>121</v>
       </c>
@@ -8462,7 +8383,7 @@
       <c r="M124" s="14"/>
       <c r="N124" s="20"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
         <v>122</v>
       </c>
@@ -8498,7 +8419,7 @@
       <c r="M125" s="14"/>
       <c r="N125" s="20"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
         <v>123</v>
       </c>
@@ -8538,7 +8459,7 @@
       </c>
       <c r="N126" s="20"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
         <v>124</v>
       </c>
@@ -8578,7 +8499,7 @@
       </c>
       <c r="N127" s="20"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
         <v>125</v>
       </c>
@@ -8618,7 +8539,7 @@
       </c>
       <c r="N128" s="20"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
         <v>126</v>
       </c>
@@ -8660,7 +8581,7 @@
       </c>
       <c r="N129" s="20"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
         <v>127</v>
       </c>
@@ -8702,7 +8623,7 @@
       </c>
       <c r="N130" s="20"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="29">
         <v>128</v>
       </c>
@@ -8742,7 +8663,7 @@
       <c r="M131" s="15"/>
       <c r="N131" s="20"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="29">
         <v>129</v>
       </c>
@@ -8782,7 +8703,7 @@
       <c r="M132" s="15"/>
       <c r="N132" s="20"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="29">
         <v>130</v>
       </c>
@@ -8824,7 +8745,7 @@
       </c>
       <c r="N133" s="20"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="29">
         <v>131</v>
       </c>
@@ -8866,7 +8787,7 @@
       </c>
       <c r="N134" s="20"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="29">
         <v>132</v>
       </c>
@@ -8906,7 +8827,7 @@
       <c r="M135" s="15"/>
       <c r="N135" s="20"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="29">
         <v>133</v>
       </c>
@@ -8946,7 +8867,7 @@
       <c r="M136" s="15"/>
       <c r="N136" s="20"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="29">
         <v>134</v>
       </c>
@@ -8988,7 +8909,7 @@
       </c>
       <c r="N137" s="20"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="29">
         <v>135</v>
       </c>
@@ -9030,7 +8951,7 @@
       </c>
       <c r="N138" s="20"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="29">
         <v>136</v>
       </c>
@@ -9070,7 +8991,7 @@
       <c r="M139" s="15"/>
       <c r="N139" s="20"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="29">
         <v>137</v>
       </c>
@@ -9110,7 +9031,7 @@
       <c r="M140" s="15"/>
       <c r="N140" s="20"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="29">
         <v>138</v>
       </c>
@@ -9152,7 +9073,7 @@
       </c>
       <c r="N141" s="20"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="29">
         <v>139</v>
       </c>
@@ -9194,7 +9115,7 @@
       </c>
       <c r="N142" s="20"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
         <v>140</v>
       </c>
@@ -9228,7 +9149,7 @@
       </c>
       <c r="N143" s="20"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29">
         <v>141</v>
       </c>
@@ -9270,7 +9191,7 @@
       </c>
       <c r="N144" s="20"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="29">
         <v>142</v>
       </c>
@@ -9310,7 +9231,7 @@
       <c r="M145" s="15"/>
       <c r="N145" s="20"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="29">
         <v>143</v>
       </c>
@@ -9350,7 +9271,7 @@
       <c r="M146" s="14"/>
       <c r="N146" s="20"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="29">
         <v>144</v>
       </c>
@@ -9390,7 +9311,7 @@
       <c r="M147" s="14"/>
       <c r="N147" s="20"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="29">
         <v>145</v>
       </c>
@@ -9426,7 +9347,7 @@
       <c r="M148" s="15"/>
       <c r="N148" s="20"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="29">
         <v>146</v>
       </c>
@@ -9462,7 +9383,7 @@
       <c r="M149" s="15"/>
       <c r="N149" s="20"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="29">
         <v>147</v>
       </c>
@@ -9498,7 +9419,7 @@
       <c r="M150" s="15"/>
       <c r="N150" s="20"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="29">
         <v>148</v>
       </c>
@@ -9534,7 +9455,7 @@
       <c r="M151" s="15"/>
       <c r="N151" s="20"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="29">
         <v>149</v>
       </c>
@@ -9570,7 +9491,7 @@
       <c r="M152" s="15"/>
       <c r="N152" s="20"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="29">
         <v>150</v>
       </c>
@@ -9606,7 +9527,7 @@
       <c r="M153" s="15"/>
       <c r="N153" s="20"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="29">
         <v>151</v>
       </c>
@@ -9646,7 +9567,7 @@
       <c r="M154" s="15"/>
       <c r="N154" s="20"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="29">
         <v>152</v>
       </c>
@@ -9688,7 +9609,7 @@
       </c>
       <c r="N155" s="20"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="29">
         <v>153</v>
       </c>
@@ -9730,7 +9651,7 @@
       </c>
       <c r="N156" s="20"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="29">
         <v>154</v>
       </c>
@@ -9792,169 +9713,117 @@
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="G155:G157 G1:G5 G148:G153 G129:G132 G12:G26 G66:G68 G31:G47 G108:G124 G49:G58 G60:G64 G134:G146">
-    <cfRule type="expression" dxfId="75" priority="115">
+  <conditionalFormatting sqref="G1:G11">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="116">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),NOT(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27 G10 G7:G8 G29">
-    <cfRule type="expression" dxfId="73" priority="65">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G7)),(ISNUMBER(SEARCH("-&gt;",G7))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="66">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G7)),NOT(ISNUMBER(SEARCH("-&gt;",G7))))</formula>
+  <conditionalFormatting sqref="G2:G59">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G154">
-    <cfRule type="expression" dxfId="71" priority="61">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G154)),(ISNUMBER(SEARCH("-&gt;",G154))))</formula>
+  <conditionalFormatting sqref="G12:G27">
+    <cfRule type="expression" dxfId="27" priority="65">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G12)),(ISNUMBER(SEARCH("-&gt;",G12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="62">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G154)),NOT(ISNUMBER(SEARCH("-&gt;",G154))))</formula>
+    <cfRule type="expression" dxfId="26" priority="66">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G12)),NOT(ISNUMBER(SEARCH("-&gt;",G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="69" priority="59">
+    <cfRule type="expression" dxfId="25" priority="59">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G26)),(ISNUMBER(SEARCH("-&gt;",G26))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="60">
+    <cfRule type="expression" dxfId="24" priority="60">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G26)),NOT(ISNUMBER(SEARCH("-&gt;",G26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="67" priority="57">
+  <conditionalFormatting sqref="G28:G47">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G28)),(ISNUMBER(SEARCH("-&gt;",G28))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="58">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G28)),NOT(ISNUMBER(SEARCH("-&gt;",G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G147">
-    <cfRule type="expression" dxfId="65" priority="49">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G147)),(ISNUMBER(SEARCH("-&gt;",G147))))</formula>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="21" priority="7">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G48)),NOT(ISNUMBER(SEARCH("-&gt;",G48))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="50">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G147)),NOT(ISNUMBER(SEARCH("-&gt;",G147))))</formula>
+    <cfRule type="expression" dxfId="20" priority="6">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G48)),(ISNUMBER(SEARCH("-&gt;",G48))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G58 G60:G64 G66:G68 G108:G124 G129:G132">
+    <cfRule type="expression" dxfId="19" priority="116">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G49)),NOT(ISNUMBER(SEARCH("-&gt;",G49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G58 G66:G68 G108:G124 G129:G132 G60:G64">
+    <cfRule type="expression" dxfId="18" priority="115">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G49)),(ISNUMBER(SEARCH("-&gt;",G49))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="expression" dxfId="17" priority="4">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G59)),NOT(ISNUMBER(SEARCH("-&gt;",G59))))</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="16" priority="2" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G59,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G59)),(ISNUMBER(SEARCH("-&gt;",G59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60:G65">
+    <cfRule type="endsWith" dxfId="14" priority="18" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G60,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60:G157">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:G65">
+    <cfRule type="expression" dxfId="12" priority="19">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G63)),(ISNUMBER(SEARCH("-&gt;",G63))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="20">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G63)),NOT(ISNUMBER(SEARCH("-&gt;",G63))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:G1048576 G1:G58">
+    <cfRule type="endsWith" dxfId="10" priority="22" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G1,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="endsWith" dxfId="9" priority="14" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G79,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134:G137">
-    <cfRule type="expression" dxfId="63" priority="45">
+    <cfRule type="expression" dxfId="7" priority="46">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G134)),NOT(ISNUMBER(SEARCH("-&gt;",G134))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="45">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G134)),(ISNUMBER(SEARCH("-&gt;",G134))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="46">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134:G157">
+    <cfRule type="expression" dxfId="5" priority="50">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G134)),NOT(ISNUMBER(SEARCH("-&gt;",G134))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="61" priority="41">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G9)),(ISNUMBER(SEARCH("-&gt;",G9))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="42">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G9)),NOT(ISNUMBER(SEARCH("-&gt;",G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="59" priority="39">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G11)),(ISNUMBER(SEARCH("-&gt;",G11))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="40">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G11)),NOT(ISNUMBER(SEARCH("-&gt;",G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="57" priority="33">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G6)),(ISNUMBER(SEARCH("-&gt;",G6))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="34">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G6)),NOT(ISNUMBER(SEARCH("-&gt;",G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="55" priority="29">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G30)),(ISNUMBER(SEARCH("-&gt;",G30))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="30">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G30)),NOT(ISNUMBER(SEARCH("-&gt;",G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63:G64">
-    <cfRule type="expression" dxfId="53" priority="25">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G63)),(ISNUMBER(SEARCH("-&gt;",G63))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="26">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G63)),NOT(ISNUMBER(SEARCH("-&gt;",G63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G58 G60:G64 G66:G1048576">
-    <cfRule type="endsWith" dxfId="51" priority="22" operator="endsWith" text="vacant}">
-      <formula>RIGHT(G1,LEN("vacant}"))="vacant}"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G47 G49:G58 G60:G64 G66:G157">
-    <cfRule type="containsText" dxfId="50" priority="21" operator="containsText" text="vacant} -&gt;">
-      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="49" priority="19">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G65)),(ISNUMBER(SEARCH("-&gt;",G65))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="20">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G65)),NOT(ISNUMBER(SEARCH("-&gt;",G65))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="endsWith" dxfId="47" priority="18" operator="endsWith" text="vacant}">
-      <formula>RIGHT(G65,LEN("vacant}"))="vacant}"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="vacant} -&gt;">
-      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="endsWith" dxfId="45" priority="14" operator="endsWith" text="vacant}">
-      <formula>RIGHT(G79,LEN("vacant}"))="vacant}"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
-    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="vacant} -&gt;">
-      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="43" priority="6">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G48)),(ISNUMBER(SEARCH("-&gt;",G48))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="7">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G48)),NOT(ISNUMBER(SEARCH("-&gt;",G48))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="vacant} -&gt;">
-      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="expression" dxfId="40" priority="3">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G59)),(ISNUMBER(SEARCH("-&gt;",G59))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="4">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G59)),NOT(ISNUMBER(SEARCH("-&gt;",G59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="endsWith" dxfId="38" priority="2" operator="endsWith" text="vacant}">
-      <formula>RIGHT(G59,LEN("vacant}"))="vacant}"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="vacant} -&gt;">
-      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G59)))</formula>
+    <cfRule type="expression" dxfId="4" priority="49">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G134)),(ISNUMBER(SEARCH("-&gt;",G134))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10030,21 +9899,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G5)))</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="2" priority="2" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G5,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G5)),(ISNUMBER(SEARCH("-&gt;",G5))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G5)),NOT(ISNUMBER(SEARCH("-&gt;",G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="endsWith" dxfId="1" priority="2" operator="endsWith" text="vacant}">
-      <formula>RIGHT(G5,LEN("vacant}"))="vacant}"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="vacant} -&gt;">
-      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/revenue-streamlit/tenancy_list_scenario_01C.xlsx
+++ b/revenue-streamlit/tenancy_list_scenario_01C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{1E26A472-73F2-904F-A311-C7087A595554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC999BFA-E9AC-574B-A147-149A7CCDFFA7}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{1E26A472-73F2-904F-A311-C7087A595554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73B120C8-34EF-CF48-AF9F-5DF35ACC4A6A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="33260" windowHeight="21160" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21500" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="2" r:id="rId1"/>
@@ -1691,19 +1691,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2538,7 +2538,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>288616</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77683</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2610,13 +2610,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>234894</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>86989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>276703</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>32053</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2688,13 +2688,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>222981</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>131271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264790</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157345</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2765,6 +2765,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product_Type" xr10:uid="{0FBB730F-8D21-DE4E-82F5-FD01F9F099FA}" sourceName="Product_Type">
   <extLst>
@@ -2809,11 +2813,6 @@
     <filterColumn colId="4">
       <filters>
         <filter val="Office"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Y"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3140,7 +3139,7 @@
   <dimension ref="B4:J7"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3155,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="I4" t="s">
         <v>133</v>
@@ -3166,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>48579</v>
+        <v>48944</v>
       </c>
       <c r="I5" t="s">
         <v>131</v>
@@ -3215,8 +3214,8 @@
   <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3791,7 +3790,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -3918,7 +3917,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>18</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>19</v>
       </c>
@@ -4130,7 +4129,7 @@
       <c r="M21" s="40"/>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>20</v>
       </c>
@@ -4549,7 +4548,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>30</v>
       </c>
@@ -4585,7 +4584,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <v>31</v>
       </c>
@@ -4627,7 +4626,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
         <v>32</v>
       </c>
@@ -4663,7 +4662,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
         <v>33</v>
       </c>
@@ -4705,7 +4704,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
         <v>34</v>
       </c>
@@ -4741,7 +4740,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <v>35</v>
       </c>
@@ -4783,7 +4782,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <v>36</v>
       </c>
@@ -4861,7 +4860,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
         <v>38</v>
       </c>
@@ -4903,7 +4902,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
         <v>39</v>
       </c>
@@ -4945,7 +4944,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>40</v>
       </c>
@@ -5072,7 +5071,7 @@
       </c>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
         <v>43</v>
       </c>
@@ -5114,7 +5113,7 @@
       </c>
       <c r="N45" s="20"/>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
         <v>44</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
         <v>45</v>
       </c>
@@ -5201,7 +5200,7 @@
       </c>
       <c r="N47" s="20"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
         <v>46</v>
       </c>
@@ -5243,7 +5242,7 @@
       </c>
       <c r="N48" s="20"/>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
         <v>47</v>
       </c>
@@ -5530,7 +5529,7 @@
       </c>
       <c r="N55" s="20"/>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
         <v>54</v>
       </c>
@@ -5572,7 +5571,7 @@
       </c>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
         <v>55</v>
       </c>
@@ -5614,7 +5613,7 @@
       </c>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
         <v>56</v>
       </c>
@@ -5656,7 +5655,7 @@
       </c>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
         <v>57</v>
       </c>
@@ -5698,7 +5697,7 @@
       </c>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
         <v>58</v>
       </c>
@@ -5740,7 +5739,7 @@
       </c>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
         <v>59</v>
       </c>
@@ -5782,7 +5781,7 @@
       </c>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
         <v>60</v>
       </c>
@@ -5824,7 +5823,7 @@
       </c>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
         <v>61</v>
       </c>
@@ -5866,7 +5865,7 @@
       </c>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
         <v>62</v>
       </c>
@@ -5908,7 +5907,7 @@
       </c>
       <c r="N64" s="20"/>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
         <v>63</v>
       </c>
@@ -5944,7 +5943,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
         <v>64</v>
       </c>
@@ -5986,7 +5985,7 @@
       </c>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
         <v>65</v>
       </c>
@@ -6028,7 +6027,7 @@
       </c>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
         <v>66</v>
       </c>
@@ -6070,7 +6069,7 @@
       </c>
       <c r="N68" s="20"/>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>67</v>
       </c>
@@ -6112,7 +6111,7 @@
       </c>
       <c r="N69" s="20"/>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
         <v>68</v>
       </c>
@@ -6154,7 +6153,7 @@
       </c>
       <c r="N70" s="20"/>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
         <v>69</v>
       </c>
@@ -6196,7 +6195,7 @@
       </c>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
         <v>70</v>
       </c>
@@ -6238,7 +6237,7 @@
       </c>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="29">
         <v>71</v>
       </c>
@@ -6280,7 +6279,7 @@
       </c>
       <c r="N73" s="20"/>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
         <v>72</v>
       </c>
@@ -6322,7 +6321,7 @@
       </c>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
         <v>73</v>
       </c>
@@ -6358,7 +6357,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="20"/>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
         <v>74</v>
       </c>
@@ -6400,7 +6399,7 @@
       </c>
       <c r="N76" s="20"/>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
         <v>75</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
         <v>76</v>
       </c>
@@ -6486,7 +6485,7 @@
       </c>
       <c r="N78" s="20"/>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>77</v>
       </c>
@@ -6528,7 +6527,7 @@
       </c>
       <c r="N79" s="20"/>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
         <v>78</v>
       </c>
@@ -6570,7 +6569,7 @@
       </c>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="29">
         <v>79</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
         <v>80</v>
       </c>
@@ -6654,7 +6653,7 @@
       </c>
       <c r="N82" s="20"/>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="29">
         <v>81</v>
       </c>
@@ -6694,7 +6693,7 @@
       </c>
       <c r="N83" s="20"/>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="29">
         <v>82</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
       <c r="B85" s="29" t="s">
         <v>174</v>
@@ -6909,7 +6908,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="29">
         <v>86</v>
       </c>
@@ -6991,7 +6990,7 @@
       </c>
       <c r="N90" s="20"/>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="29">
         <v>88</v>
       </c>
@@ -7033,7 +7032,7 @@
       </c>
       <c r="N91" s="20"/>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
         <v>89</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
         <v>90</v>
       </c>
@@ -7119,7 +7118,7 @@
       </c>
       <c r="N93" s="20"/>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
         <v>91</v>
       </c>
@@ -7289,7 +7288,7 @@
       </c>
       <c r="N97" s="20"/>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
         <v>95</v>
       </c>
@@ -7329,7 +7328,7 @@
       </c>
       <c r="N98" s="20"/>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
         <v>96</v>
       </c>
@@ -7371,7 +7370,7 @@
       </c>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
         <v>97</v>
       </c>
@@ -7411,7 +7410,7 @@
       </c>
       <c r="N100" s="20"/>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
         <v>98</v>
       </c>
@@ -7453,7 +7452,7 @@
       </c>
       <c r="N101" s="20"/>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
         <v>99</v>
       </c>
@@ -7493,7 +7492,7 @@
       </c>
       <c r="N102" s="20"/>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
         <v>100</v>
       </c>
@@ -7535,7 +7534,7 @@
       </c>
       <c r="N103" s="20"/>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
         <v>101</v>
       </c>
@@ -8419,7 +8418,7 @@
       <c r="M125" s="14"/>
       <c r="N125" s="20"/>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
         <v>123</v>
       </c>
@@ -8459,7 +8458,7 @@
       </c>
       <c r="N126" s="20"/>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
         <v>124</v>
       </c>
@@ -8499,7 +8498,7 @@
       </c>
       <c r="N127" s="20"/>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
         <v>125</v>
       </c>
@@ -8539,7 +8538,7 @@
       </c>
       <c r="N128" s="20"/>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
         <v>126</v>
       </c>
@@ -9769,11 +9768,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="endsWith" dxfId="17" priority="2" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G59,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G59)),NOT(ISNUMBER(SEARCH("-&gt;",G59))))</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="16" priority="2" operator="endsWith" text="vacant}">
-      <formula>RIGHT(G59,LEN("vacant}"))="vacant}"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G59)),(ISNUMBER(SEARCH("-&gt;",G59))))</formula>
